--- a/Assignment2/FleetType.xlsx
+++ b/Assignment2/FleetType.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fos van der Meer\Documents\Uni\TIL\AE4423\Assignment 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fos van der Meer\Documents\Uni\TIL\AE4423\Assignments\AE4423\Assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291F882E-545F-4096-A090-89D6A397FDF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A935F6-C657-4FBC-A8B3-EC5E026DBAD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{4BBE3E40-8962-E64C-9379-6A7BE6BAC302}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="6216" xr2:uid="{4BBE3E40-8962-E64C-9379-6A7BE6BAC302}"/>
   </bookViews>
   <sheets>
     <sheet name="Fleet Type" sheetId="1" r:id="rId1"/>
